--- a/论文/可穿戴论文记录.xlsx
+++ b/论文/可穿戴论文记录.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99740\Desktop\notes\论文\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F3220C-524B-4092-B213-D25C74B4DC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1305" windowWidth="25635" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="12100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,75 +12,270 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Author</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PubYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KeyWord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Abstract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PDF Link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Paper Link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DOI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A Real-Time Human Action Recognition System Using Depth and Inertial Sensor Fusion
+</t>
+  </si>
+  <si>
+    <t>Chen Chen  ; Roozbeh Jafari ; Nasser Kehtarnavaz
+All Authors</t>
+  </si>
+  <si>
+    <t>Human action recognition, real-time human action re
+cognition system, depth camera sensor, wearable inertial sensor, sensor fusion.</t>
+  </si>
+  <si>
+    <t>Abstract— This paper presents a human action recognition system that runs in real time and simultaneously uses a depth camera and an inertial sensor based on a previously devel-oped sensor fusion method. Computationally efficient depth image features and inertial signals features are fed into two computationally efficient collaborative representative classifiers.
+本文提出了一种基于先进的传感器融合方法，同时使用深度摄像机和惯性传感器的实时运行的人体动作识别系统。将计算效率高的深度图像特征和惯性信号特征输入到两个计算效率高的协同代表性分类器中。
+A decision-level fusion is then performed. The developed real-time system is evaluated using a publicly available multimodal human action recognition data set by considering a comprehensive set of human actions. The overall classification rate of the developed real-time system is shown to be &gt;97%, which is at least 9% higher than when each sensing modality is used individually. The results from both offline and real-time experimentations demonstrate the effectiveness of the system and its real-time throughputs.
+然后进行决策级融合。开发的实时系统是评估使用一个公开可用的多模式人类行动识别数据集，考虑到一个全面的人类行动集。实验结果表明，所开发的实时系统的总体分类率大于97% ，比单独使用每种传感方式至少高出9% 。离线和实时测试的结果表明了该系统的有效性和实时吞吐量。</t>
+  </si>
+  <si>
+    <t>1、深度相机和惯性传感器融合识别
+2、单独的模块来实时自动检测一个动作的开始和结束
+3、Kinect 相机
+4、惯性传感器可以捕捉3轴加速度、3轴角速度和3轴磁强度
+5、为了实用性和避免多个传感器干扰考虑只使用一个传感器（手或腿）
+6、depth motion maps（DMM）的作用方式还不理解
+7、Kinect 深度图用二维投影，投影视角分别称为前视 视角(front view)、侧视视角(side view)和俯视视角(top view)</t>
+  </si>
+  <si>
+    <t>https://sci-hub.tw/https://ieeexplore.ieee.org/document/7289342#</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/7289342</t>
+  </si>
+  <si>
+    <t>DOI: 10.1109/JSEN.2015.2487358</t>
+  </si>
+  <si>
+    <t>机器学习在姿态识别中的研究与应用</t>
+  </si>
+  <si>
+    <t>包艳艳</t>
+  </si>
+  <si>
+    <t>可穿戴惯性传感器; 机器学习; 特征提取; 手部细微动作; 超限学习机;</t>
+  </si>
+  <si>
+    <t>人体姿态识别技术已被广泛应用于多种领域,其中可穿戴惯性传感器的人体动作识别技术成为机器学习和人工智能的新兴分支。本文设计了一种由惯性传感器和微控制器组成的可穿戴腕带识别装置,用于识别工厂工作流程中区分度较小的四种人体手部细微动作。采用双手协同动作的方式分析场景中的应用,通过数据预处理、特征分析以及特征提取对手部细微动作进行识别。具体研究内容如下:(1)人体手部细微动作识别硬件设计。本文提出双手佩戴该装置解决不同动作习惯用户的手部动作识别。并分析人体手部动作的物理信息,确定出最有效的采集关节点。实验表明,该设备能提升数据采集的准确度,并充分挖掘关节点的准确信息。(2)采集和处理手部细微动作的数据。MPU-6050模块能够采集加速度、角速度和姿态角数据。将采集到的数据进行预处理,使用滤波技术消除干扰;归一化优化梯度;分割算法完成有效动作分割。实验结果表明,选取的关节点采集到的信息具代表性,且预处理能够提高识别精度。(3)不同动作手部特征分析。分析手部动作的统计特征、物理特征以及双手协同动作特征,使用Relief-F方法进行特征选择赋予每个特征不同的权重,提高特征集的有效性,制定特征评判标准。该方法能够根据不同的特征区分度为分类器创建更有效的特征集。(4)基于超限学习机的人体手部细微动作识别。本文对超限学习机算法性能进行分析,并与经典分类算法进行对比。实验结果表明k最近邻分类器和支持向量机具有较好的准确率,但其运行时间过长。超限学习机分类器在所有测试集上识别准确率较高,适用于手部细微动作的分类等要求较高的场合。本文将腕带式硬件装置与超限学习机算法应用于手部细微动作识别。实验证明,双手识别四种动作提高了人体手部细微动作分类和识别的精度,满足工厂动作识别需求</t>
+  </si>
+  <si>
+    <t>1、三轴加速器，陀螺仪
+2、按照时间、加速度、角速度和姿态角作为数据集
+3、姿态角（欧拉角）的应用
+4、数据预处理
+5、算术平均滤波方法
+6、利用阈值判断动作起点和终点</t>
+  </si>
+  <si>
+    <t>知网</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,8 +288,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -108,27 +483,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,7 +850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -212,7 +885,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -386,30 +1059,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="31.8482142857143" customWidth="1"/>
     <col min="5" max="5" width="37.75" customWidth="1"/>
     <col min="6" max="6" width="36.375" customWidth="1"/>
     <col min="7" max="7" width="33.625" customWidth="1"/>
@@ -417,7 +1084,7 @@
     <col min="9" max="9" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,16 +1113,75 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" s="2" customFormat="1" ht="409.5" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="409.5" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{286C6618-D2FE-4F76-B81B-1307C1C7919F}">
+  <autoFilter ref="A1:H1">
     <filterColumn colId="1">
-      <filters>
-        <filter val="Author"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="Author"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="https://ieeexplore.ieee.org/document/7289342"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://sci-hub.tw/https://ieeexplore.ieee.org/document/7289342#"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>